--- a/Result.xlsx
+++ b/Result.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Diemnsion cm</t>
+          <t>Dimension cm</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Total no.of box</t>
+          <t>Total number.of box</t>
         </is>
       </c>
     </row>
